--- a/relevel/1. Excel/radio-buttons - and -data modeling/Radio Button and Business Model Data (3).xlsx
+++ b/relevel/1. Excel/radio-buttons - and -data modeling/Radio Button and Business Model Data (3).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\navneetgitbackups@gmail.com\neosoft-office-learning\relevel\1. Excel\radio-buttons - and -data modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0467DCB9-0E07-46D2-BD90-427EAB4E2F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2334317-C996-481C-AD46-B3D851BA57E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Button Ex - 1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -274,12 +274,18 @@
   <si>
     <t>Supply Chain &amp; Logistics Models</t>
   </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Lookup Column</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,6 +389,13 @@
       <sz val="8"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -749,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -869,6 +882,8 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,8 +901,1106 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Region Wise Sales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Radio Button Ex - 2'!$D$20:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Radio Button Ex - 2'!$E$20:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABDB-46E2-B280-FF70FE6B93A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="479574912"/>
+        <c:axId val="479582112"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Radio Button Ex - 2'!$D$20:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Radio Button Ex - 2'!$F$20:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABDB-46E2-B280-FF70FE6B93A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="603081728"/>
+        <c:axId val="603077768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="479574912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479582112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="479582112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479574912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="603077768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="603081728"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="603081728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="603077768"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$A$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="$A$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -903,6 +2016,22 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$B$16" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -931,7 +2060,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -998,7 +2127,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D47BAE0-0717-8670-5B5A-FE6A8249C28A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1065,7 +2194,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F765535-7617-B939-4CB3-9D4A3EB899F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1132,7 +2261,7 @@
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1243786-D48B-35A8-27DB-1B2E6FAB6856}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1199,7 +2328,7 @@
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF55057C-C311-FA89-6941-FE3BC9771CA1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1247,6 +2376,391 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Option Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>North</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="Option Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A1216B-D311-5438-0592-511C4A65B05F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>South</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="Option Button 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A8A1A3-A126-DB8B-2D16-6EA21E0656E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>East</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4100" name="Option Button 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFDA211-3C82-F93A-5C53-2B20B269A59C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>West</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3513EFB-D907-204A-B371-A89639654EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1486,7 +3000,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1535,7 +3049,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="11"/>
@@ -1545,7 +3059,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="16" t="str" cm="1">
         <f t="array" ref="G4">INDEX(E4:E8,$A$4,1)</f>
-        <v>Peach</v>
+        <v>Apple</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -2724,10 +4238,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2992,81 +4508,169 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="81" t="s">
+        <v>71</v>
+      </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17">
+        <f>MATCH($F$19,A1:F1,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="str">
-        <f t="array" ref="F19">INDEX($C$1:$F$1,B16)</f>
-        <v>North</v>
+      <c r="F19" s="1" t="str" cm="1">
+        <f t="array" ref="F19">INDEX(C1:F1,$B$16)</f>
+        <v>West</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E20" s="4">
+        <v>14500</v>
+      </c>
+      <c r="F20" s="5">
+        <f>VLOOKUP(D20,A1:F12,$B$17,FALSE)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E21" s="4">
+        <v>12400</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21:F30" si="0">VLOOKUP(D21,A2:F13,$B$17,FALSE)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E22" s="4">
+        <v>14600</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10100</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E24" s="4">
+        <v>13400</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E25" s="4">
+        <v>13400</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E26" s="4">
+        <v>11900</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E27" s="4">
+        <v>14900</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E28" s="4">
+        <v>11700</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E29" s="4">
+        <v>13600</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E30" s="4">
+        <v>14800</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4037,15 +5641,113 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4097" r:id="rId4" name="Option Button 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4098" r:id="rId5" name="Option Button 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4099" r:id="rId6" name="Option Button 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4100" r:id="rId7" name="Option Button 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4054,26 +5756,30 @@
     <col min="3" max="3" width="44.125" customWidth="1"/>
     <col min="4" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="26" width="11" customWidth="1"/>
+    <col min="7" max="28" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
       <c r="C3" s="69" t="s">
         <v>20</v>
@@ -4082,21 +5788,21 @@
       <c r="E3" s="71"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" s="20" t="s">
         <v>21</v>
@@ -4106,11 +5812,11 @@
         <v>0</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="22" t="s">
         <v>23</v>
@@ -4121,11 +5827,11 @@
         <v>0</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="20" t="s">
         <v>25</v>
@@ -4135,11 +5841,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" s="22" t="s">
         <v>27</v>
@@ -4150,11 +5856,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="20" t="s">
         <v>29</v>
@@ -4164,11 +5870,11 @@
         <v>1</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="22" t="s">
         <v>23</v>
@@ -4179,11 +5885,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="H11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="20" t="s">
         <v>32</v>
@@ -4193,11 +5899,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="H12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
       <c r="C13" s="25" t="s">
         <v>23</v>
@@ -4209,7 +5915,7 @@
       </c>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="26" t="s">
         <v>34</v>
@@ -4220,11 +5926,11 @@
         <v>2</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -4232,8 +5938,8 @@
       <c r="E15" s="18"/>
       <c r="F15" s="19"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -4251,8 +5957,10 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -4260,8 +5968,8 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -4279,6 +5987,8 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -8229,7 +9939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22361,7 +24071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
